--- a/FMP API COA.xlsx
+++ b/FMP API COA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shai\Documents\GitHub\python-projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B65CCF-E2FD-4282-98C2-F937BE0721E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DE54C7-F26B-4DF3-AA7A-F11E64C82A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{66EACB9C-A719-42F5-A84B-19AC01EE3A6D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{66EACB9C-A719-42F5-A84B-19AC01EE3A6D}"/>
   </bookViews>
   <sheets>
     <sheet name="COA" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="43">
   <si>
     <t>Account_key</t>
   </si>
@@ -70,18 +70,9 @@
     <t>Operating Expenses</t>
   </si>
   <si>
-    <t>Other Expenses</t>
-  </si>
-  <si>
     <t>ITDA</t>
   </si>
   <si>
-    <t>Non-operating</t>
-  </si>
-  <si>
-    <t>Non-operating Income/Expense</t>
-  </si>
-  <si>
     <t>Interest Income</t>
   </si>
   <si>
@@ -91,9 +82,6 @@
     <t>Gross Profit</t>
   </si>
   <si>
-    <t>EBITDA</t>
-  </si>
-  <si>
     <t>Revenue</t>
   </si>
   <si>
@@ -124,12 +112,6 @@
     <t>sellingAndMarketingExpenses</t>
   </si>
   <si>
-    <t>otherExpenses</t>
-  </si>
-  <si>
-    <t>depreciationAndAmortization</t>
-  </si>
-  <si>
     <t>interestExpense</t>
   </si>
   <si>
@@ -142,9 +124,6 @@
     <t>operatingIncome</t>
   </si>
   <si>
-    <t>ebitda</t>
-  </si>
-  <si>
     <t>netIncome</t>
   </si>
   <si>
@@ -163,19 +142,28 @@
     <t>Selling and Marketing Expenses</t>
   </si>
   <si>
-    <t>Depreciation and Amortization</t>
-  </si>
-  <si>
     <t>P &amp; L Group Order</t>
   </si>
   <si>
-    <t>Income Tax Expense</t>
-  </si>
-  <si>
     <t>incomeTaxExpense</t>
   </si>
   <si>
     <t>P &amp; L Group</t>
+  </si>
+  <si>
+    <t>incomeBeforeTax</t>
+  </si>
+  <si>
+    <t>Income Before Income Taxes</t>
+  </si>
+  <si>
+    <t>Income Tax</t>
+  </si>
+  <si>
+    <t>Other Income Expense Net</t>
+  </si>
+  <si>
+    <t>otherIncomeExpenseNet</t>
   </si>
 </sst>
 </file>
@@ -289,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -300,6 +288,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,8 +480,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{603D2899-AE13-4C34-A44E-09AC2BED9353}" name="tbl_ChartofAccounts" displayName="tbl_ChartofAccounts" ref="A1:H15" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:H15" xr:uid="{603D2899-AE13-4C34-A44E-09AC2BED9353}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{603D2899-AE13-4C34-A44E-09AC2BED9353}" name="tbl_ChartofAccounts" displayName="tbl_ChartofAccounts" ref="A1:H14" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H14" xr:uid="{603D2899-AE13-4C34-A44E-09AC2BED9353}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{BA06E30B-EFD4-40ED-B339-F26E34BB5268}" name="Account_key" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{C4241A17-CF28-4D13-80E2-4E88CBA616F3}" name="Report" dataDxfId="6"/>
@@ -804,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C1AFCA-4B60-403A-9B8C-DBA139E68341}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -842,7 +831,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -859,19 +848,19 @@
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -885,19 +874,19 @@
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -914,16 +903,16 @@
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -940,16 +929,16 @@
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -966,94 +955,94 @@
         <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
-        <v>240</v>
+        <v>440</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>38</v>
+        <v>13</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>42</v>
+      <c r="E8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -1063,54 +1052,54 @@
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>12</v>
+      <c r="C10" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>410</v>
+        <v>500</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>15</v>
+      <c r="D11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>7</v>
@@ -1131,85 +1120,59 @@
         <v>17</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>21</v>
+      <c r="C13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>530</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1223,10 +1186,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F11A79-5ECD-41C9-BDA8-DCEF2AD53B98}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1241,18 +1204,18 @@
         <v>6</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
@@ -1260,10 +1223,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C3" s="7">
         <v>2</v>
@@ -1271,10 +1234,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4" s="7">
         <v>3</v>
@@ -1282,122 +1245,111 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>45</v>
+      <c r="A10" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
-        <v>32</v>
+      <c r="A11" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
-        <v>33</v>
+      <c r="A12" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
-        <v>34</v>
+      <c r="A13" t="s">
+        <v>36</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="7">
         <v>9</v>
       </c>
     </row>

--- a/FMP API COA.xlsx
+++ b/FMP API COA.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shai\Documents\GitHub\python-projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DE54C7-F26B-4DF3-AA7A-F11E64C82A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8509174-327C-4F61-BF23-0A6944BC918B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{66EACB9C-A719-42F5-A84B-19AC01EE3A6D}"/>
+    <workbookView xWindow="3830" yWindow="930" windowWidth="10340" windowHeight="7270" activeTab="2" xr2:uid="{66EACB9C-A719-42F5-A84B-19AC01EE3A6D}"/>
   </bookViews>
   <sheets>
     <sheet name="COA" sheetId="2" r:id="rId1"/>
     <sheet name="COA Order" sheetId="3" r:id="rId2"/>
+    <sheet name="Ratios" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="56">
   <si>
     <t>Account_key</t>
   </si>
@@ -164,6 +165,45 @@
   </si>
   <si>
     <t>otherIncomeExpenseNet</t>
+  </si>
+  <si>
+    <t>EBITDA Ratio</t>
+  </si>
+  <si>
+    <t>Gross Profit Ratio</t>
+  </si>
+  <si>
+    <t>Income Before Tax Ratio</t>
+  </si>
+  <si>
+    <t>Net Income Ratio</t>
+  </si>
+  <si>
+    <t>Operating Income Ratio</t>
+  </si>
+  <si>
+    <t>grossProfitRatio</t>
+  </si>
+  <si>
+    <t>ebitdaratio</t>
+  </si>
+  <si>
+    <t>operatingIncomeRatio</t>
+  </si>
+  <si>
+    <t>incomeBeforeTaxRatio</t>
+  </si>
+  <si>
+    <t>netIncomeRatio</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Ratio Name</t>
+  </si>
+  <si>
+    <t>Ratio</t>
   </si>
 </sst>
 </file>
@@ -277,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -288,7 +328,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -795,7 +834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C1AFCA-4B60-403A-9B8C-DBA139E68341}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -1189,7 +1228,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1310,7 +1349,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -1321,7 +1360,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1351,6 +1390,91 @@
       </c>
       <c r="C14" s="7">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E93A2C1-6102-4380-A75D-25BB59EBDD40}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.26953125" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
